--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angpt4-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angpt4-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Angpt4</t>
+  </si>
+  <si>
+    <t>Tek</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Angpt4</t>
-  </si>
-  <si>
-    <t>Tek</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2257126666666667</v>
+        <v>1.091893666666667</v>
       </c>
       <c r="H2">
-        <v>0.6771380000000001</v>
+        <v>3.275681</v>
       </c>
       <c r="I2">
-        <v>0.1432089438917231</v>
+        <v>0.8167354825840876</v>
       </c>
       <c r="J2">
-        <v>0.1432089438917231</v>
+        <v>0.8167354825840876</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.221457</v>
+        <v>56.16842399999999</v>
       </c>
       <c r="N2">
-        <v>192.664371</v>
+        <v>168.505272</v>
       </c>
       <c r="O2">
-        <v>0.8366610301096816</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="P2">
-        <v>0.8366610301096816</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="Q2">
-        <v>14.49559631668867</v>
+        <v>61.329946432248</v>
       </c>
       <c r="R2">
-        <v>130.460366850198</v>
+        <v>551.9695178902319</v>
       </c>
       <c r="S2">
-        <v>0.1198173425173687</v>
+        <v>0.6551364609585431</v>
       </c>
       <c r="T2">
-        <v>0.1198173425173687</v>
+        <v>0.6551364609585431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2257126666666667</v>
+        <v>1.091893666666667</v>
       </c>
       <c r="H3">
-        <v>0.6771380000000001</v>
+        <v>3.275681</v>
       </c>
       <c r="I3">
-        <v>0.1432089438917231</v>
+        <v>0.8167354825840876</v>
       </c>
       <c r="J3">
-        <v>0.1432089438917231</v>
+        <v>0.8167354825840876</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>31.747611</v>
       </c>
       <c r="O3">
-        <v>0.1378666371208897</v>
+        <v>0.1511290331103168</v>
       </c>
       <c r="P3">
-        <v>0.1378666371208896</v>
+        <v>0.1511290331103167</v>
       </c>
       <c r="Q3">
-        <v>2.388612646368667</v>
+        <v>11.55500512756567</v>
       </c>
       <c r="R3">
-        <v>21.497513817318</v>
+        <v>103.995046148091</v>
       </c>
       <c r="S3">
-        <v>0.01974373549998604</v>
+        <v>0.1234324437898211</v>
       </c>
       <c r="T3">
-        <v>0.01974373549998604</v>
+        <v>0.1234324437898211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2257126666666667</v>
+        <v>1.091893666666667</v>
       </c>
       <c r="H4">
-        <v>0.6771380000000001</v>
+        <v>3.275681</v>
       </c>
       <c r="I4">
-        <v>0.1432089438917231</v>
+        <v>0.8167354825840876</v>
       </c>
       <c r="J4">
-        <v>0.1432089438917231</v>
+        <v>0.8167354825840876</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,42 +679,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.955236666666667</v>
+        <v>3.262797333333333</v>
       </c>
       <c r="N4">
-        <v>5.86571</v>
+        <v>9.788392</v>
       </c>
       <c r="O4">
-        <v>0.02547233276942866</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="P4">
-        <v>0.02547233276942866</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="Q4">
-        <v>0.4413216819977779</v>
+        <v>3.562627743883556</v>
       </c>
       <c r="R4">
-        <v>3.971895137980001</v>
+        <v>32.063649694952</v>
       </c>
       <c r="S4">
-        <v>0.00364786587436841</v>
+        <v>0.03805656889687651</v>
       </c>
       <c r="T4">
-        <v>0.003647865874368409</v>
+        <v>0.03805656889687651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,40 +729,40 @@
         <v>3.275681</v>
       </c>
       <c r="I5">
-        <v>0.6927787489938291</v>
+        <v>0.8167354825840876</v>
       </c>
       <c r="J5">
-        <v>0.6927787489938291</v>
+        <v>0.8167354825840876</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>64.221457</v>
+        <v>0.009431666666666666</v>
       </c>
       <c r="N5">
-        <v>192.664371</v>
+        <v>0.028295</v>
       </c>
       <c r="O5">
-        <v>0.8366610301096816</v>
+        <v>0.0001346934732146117</v>
       </c>
       <c r="P5">
-        <v>0.8366610301096816</v>
+        <v>0.0001346934732146117</v>
       </c>
       <c r="Q5">
-        <v>70.12300216240565</v>
+        <v>0.01029837709944444</v>
       </c>
       <c r="R5">
-        <v>631.107019461651</v>
+        <v>0.09268539389500001</v>
       </c>
       <c r="S5">
-        <v>0.5796209817712736</v>
+        <v>0.0001100089388468628</v>
       </c>
       <c r="T5">
-        <v>0.5796209817712736</v>
+        <v>0.0001100089388468628</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,14 +770,14 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.091893666666667</v>
+        <v>0.2450063333333334</v>
       </c>
       <c r="H6">
-        <v>3.275681</v>
+        <v>0.7350190000000001</v>
       </c>
       <c r="I6">
-        <v>0.6927787489938291</v>
+        <v>0.1832645174159124</v>
       </c>
       <c r="J6">
-        <v>0.6927787489938291</v>
+        <v>0.1832645174159125</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.582537</v>
+        <v>56.16842399999999</v>
       </c>
       <c r="N6">
-        <v>31.747611</v>
+        <v>168.505272</v>
       </c>
       <c r="O6">
-        <v>0.1378666371208897</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="P6">
-        <v>0.1378666371208896</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="Q6">
-        <v>11.55500512756567</v>
+        <v>13.761619613352</v>
       </c>
       <c r="R6">
-        <v>103.995046148091</v>
+        <v>123.854576520168</v>
       </c>
       <c r="S6">
-        <v>0.09551107639259615</v>
+        <v>0.1470038585556064</v>
       </c>
       <c r="T6">
-        <v>0.09551107639259612</v>
+        <v>0.1470038585556064</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.091893666666667</v>
+        <v>0.2450063333333334</v>
       </c>
       <c r="H7">
-        <v>3.275681</v>
+        <v>0.7350190000000001</v>
       </c>
       <c r="I7">
-        <v>0.6927787489938291</v>
+        <v>0.1832645174159124</v>
       </c>
       <c r="J7">
-        <v>0.6927787489938291</v>
+        <v>0.1832645174159125</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,60 +865,60 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.955236666666667</v>
+        <v>10.582537</v>
       </c>
       <c r="N7">
-        <v>5.86571</v>
+        <v>31.747611</v>
       </c>
       <c r="O7">
-        <v>0.02547233276942866</v>
+        <v>0.1511290331103168</v>
       </c>
       <c r="P7">
-        <v>0.02547233276942866</v>
+        <v>0.1511290331103167</v>
       </c>
       <c r="Q7">
-        <v>2.134910533167778</v>
+        <v>2.592788587734334</v>
       </c>
       <c r="R7">
-        <v>19.21419479851</v>
+        <v>23.335097289609</v>
       </c>
       <c r="S7">
-        <v>0.01764669082995931</v>
+        <v>0.02769658932049565</v>
       </c>
       <c r="T7">
-        <v>0.0176466908299593</v>
+        <v>0.02769658932049565</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.258501</v>
+        <v>0.2450063333333334</v>
       </c>
       <c r="H8">
-        <v>0.7755029999999999</v>
+        <v>0.7350190000000001</v>
       </c>
       <c r="I8">
-        <v>0.1640123071144478</v>
+        <v>0.1832645174159124</v>
       </c>
       <c r="J8">
-        <v>0.1640123071144478</v>
+        <v>0.1832645174159125</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,152 +927,90 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.221457</v>
+        <v>3.262797333333333</v>
       </c>
       <c r="N8">
-        <v>192.664371</v>
+        <v>9.788392</v>
       </c>
       <c r="O8">
-        <v>0.8366610301096816</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="P8">
-        <v>0.8366610301096816</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="Q8">
-        <v>16.601310855957</v>
+        <v>0.7994060110497778</v>
       </c>
       <c r="R8">
-        <v>149.411797703613</v>
+        <v>7.194654099448001</v>
       </c>
       <c r="S8">
-        <v>0.1372227058210393</v>
+        <v>0.008539385005442617</v>
       </c>
       <c r="T8">
-        <v>0.1372227058210394</v>
+        <v>0.008539385005442617</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.258501</v>
+        <v>0.2450063333333334</v>
       </c>
       <c r="H9">
-        <v>0.7755029999999999</v>
+        <v>0.7350190000000001</v>
       </c>
       <c r="I9">
-        <v>0.1640123071144478</v>
+        <v>0.1832645174159124</v>
       </c>
       <c r="J9">
-        <v>0.1640123071144478</v>
+        <v>0.1832645174159125</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>10.582537</v>
+        <v>0.009431666666666666</v>
       </c>
       <c r="N9">
-        <v>31.747611</v>
+        <v>0.028295</v>
       </c>
       <c r="O9">
-        <v>0.1378666371208897</v>
+        <v>0.0001346934732146117</v>
       </c>
       <c r="P9">
-        <v>0.1378666371208896</v>
+        <v>0.0001346934732146117</v>
       </c>
       <c r="Q9">
-        <v>2.735596397037</v>
+        <v>0.002310818067222222</v>
       </c>
       <c r="R9">
-        <v>24.620367573333</v>
+        <v>0.020797362605</v>
       </c>
       <c r="S9">
-        <v>0.02261182522830748</v>
+        <v>2.468453436774894E-05</v>
       </c>
       <c r="T9">
-        <v>0.02261182522830748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.258501</v>
-      </c>
-      <c r="H10">
-        <v>0.7755029999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.1640123071144478</v>
-      </c>
-      <c r="J10">
-        <v>0.1640123071144478</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.955236666666667</v>
-      </c>
-      <c r="N10">
-        <v>5.86571</v>
-      </c>
-      <c r="O10">
-        <v>0.02547233276942866</v>
-      </c>
-      <c r="P10">
-        <v>0.02547233276942866</v>
-      </c>
-      <c r="Q10">
-        <v>0.50543063357</v>
-      </c>
-      <c r="R10">
-        <v>4.548875702129999</v>
-      </c>
-      <c r="S10">
-        <v>0.004177776065100946</v>
-      </c>
-      <c r="T10">
-        <v>0.004177776065100946</v>
+        <v>2.468453436774895E-05</v>
       </c>
     </row>
   </sheetData>
